--- a/data/trans_bre/P1422-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1422-Estudios-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-0.04025270999199592</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.07703245390628666</v>
+        <v>0.07703245390628631</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.4270107968512242</v>
@@ -627,7 +627,7 @@
         <v>-0.03498252481898409</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02947424096871008</v>
+        <v>0.02947424096870994</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.375128238404474</v>
+        <v>-2.393445110937999</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.0686175168534</v>
+        <v>-1.046735412934627</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.374650915005051</v>
+        <v>-1.354444324005835</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.7335314133231808</v>
+        <v>-0.7221913812076139</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6429541949789171</v>
+        <v>-0.6373027847614066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3958729298970634</v>
+        <v>-0.3856996527746723</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1354626055265763</v>
+        <v>0.1162020316378746</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8812030609718194</v>
+        <v>0.8463060464720438</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.471859248287126</v>
+        <v>1.403680459927661</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1209116409151761</v>
+        <v>0.1154455594454691</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.359207100016087</v>
+        <v>1.273307357758148</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.884986803814259</v>
+        <v>0.8417118460947954</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>-0.05995268467868008</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-0.4741164540625597</v>
+        <v>-0.4741164540625598</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.3419037463607597</v>
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.6355685960975674</v>
+        <v>-0.6174672828002965</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.418336237390418</v>
+        <v>-0.4299221471926143</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.00683597162398</v>
+        <v>-1.038931444190237</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7549782734931511</v>
+        <v>-0.7765811536607096</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7686174626933041</v>
+        <v>-0.7548087414617483</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6802379396316891</v>
+        <v>-0.6881480346902927</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2510299673798474</v>
+        <v>0.2706644268938422</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.340280065611624</v>
+        <v>0.349456858403252</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.02951295675161997</v>
+        <v>-0.01577804478288605</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8653156582515893</v>
+        <v>1.045012105660736</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.279342214673833</v>
+        <v>2.334806987557561</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.002229947185813565</v>
+        <v>0.002663377386911018</v>
       </c>
     </row>
     <row r="10">
@@ -807,15 +807,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.3082850639162</v>
+        <v>-1.313758899476095</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.154867552019891</v>
+        <v>-1.258471534660935</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.9403129202209609</v>
+        <v>-0.9417417702507713</v>
       </c>
     </row>
     <row r="12">
@@ -826,18 +826,18 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.85670838678027</v>
+        <v>1.213714456585651</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.093235891140985</v>
+        <v>1.211324746016725</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2220895513392765</v>
+        <v>0.2140933828862517</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>1.294648817963115</v>
+        <v>1.60623976408306</v>
       </c>
     </row>
     <row r="13">
@@ -878,22 +878,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.7532409698365501</v>
+        <v>-0.725094716701556</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.4240330022092526</v>
+        <v>-0.4469936049276038</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.6458859334018474</v>
+        <v>-0.6745685124879539</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5746125411471387</v>
+        <v>-0.5778921286327596</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5292664802763093</v>
+        <v>-0.5606051705561176</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4262002752798257</v>
+        <v>-0.4394252088198301</v>
       </c>
     </row>
     <row r="15">
@@ -904,22 +904,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1866804294713247</v>
+        <v>0.1810914097501541</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3647391413777164</v>
+        <v>0.3438529174491933</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2078776420108449</v>
+        <v>0.1949320493130278</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3043822515909373</v>
+        <v>0.3332360532506577</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7580495614693861</v>
+        <v>0.7628331695726691</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2041787514004675</v>
+        <v>0.2168859370654599</v>
       </c>
     </row>
     <row r="16">
